--- a/documents/document_list/記録管理一覧.xlsx
+++ b/documents/document_list/記録管理一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_7E7D9EDF4D71BE0C0CAF47F122706E8D2F1F9D98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE306A7-2EC6-44A0-8D66-1C556D87D744}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_7E7D9EDF4D71BE0C0CAF47F122706E8D2F1F9D98" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{536AE09E-843A-4857-B622-E2F346A121A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>承認</t>
   </si>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>https://github.com/azreus906/10031s0001/tree/main/documents/minutes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>240627_minutes.xlsx</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -306,7 +314,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,6 +362,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +753,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -876,9 +890,15 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="14"/>
     </row>
@@ -919,8 +939,8 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -929,8 +949,8 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
@@ -939,8 +959,8 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
@@ -949,8 +969,8 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
@@ -959,8 +979,8 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -975,10 +995,11 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{BAC2F66B-61AF-43B2-9CF9-93E53EF38CC1}"/>
     <hyperlink ref="D5" r:id="rId4" display="https://github.com/azreus906/10031s0001/tree/main/documents/requirement_analysis" xr:uid="{04AECFC9-F851-41E5-9177-33A7CD8F2AA1}"/>
     <hyperlink ref="D7:D8" r:id="rId5" display="https://github.com/azreus906/10031s0001/tree/main/documents/plan" xr:uid="{6BB02A2C-AB73-4F50-97E9-CBBE56404D14}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{10F2AAA7-1729-46E1-8A45-766CDCD7EFD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="240" verticalDpi="240" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="240" verticalDpi="240" r:id="rId7"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>